--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="93">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,184 +43,190 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>broke</t>
+    <t>waste</t>
   </si>
   <si>
     <t>ripped</t>
   </si>
   <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
     <t>thin</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>instead</t>
+    <t>junk</t>
   </si>
   <si>
     <t>smaller</t>
   </si>
   <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
     <t>okay</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>missing</t>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>fell</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>guess</t>
+    <t>di</t>
+  </si>
+  <si>
+    <t>short</t>
   </si>
   <si>
     <t>less</t>
   </si>
   <si>
-    <t>di</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>fl</t>
+    <t>color</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>bit</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
     <t>would</t>
   </si>
   <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>worked</t>
+    <t>work</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>hard</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>product</t>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>use</t>
+  </si>
+  <si>
+    <t>little</t>
   </si>
   <si>
     <t>even</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
     <t>buy</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>much</t>
+    <t>toy</t>
   </si>
   <si>
     <t>one</t>
@@ -229,18 +235,21 @@
     <t>negative</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
     <t>favorite</t>
   </si>
   <si>
+    <t>enjoyable</t>
+  </si>
+  <si>
     <t>classic</t>
   </si>
   <si>
@@ -259,31 +268,28 @@
     <t>loves</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>enjoy</t>
+    <t>christmas</t>
   </si>
   <si>
     <t>fun</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
     <t>game</t>
+  </si>
+  <si>
+    <t>play</t>
   </si>
   <si>
     <t>positive</t>
@@ -644,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q64"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -652,10 +658,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -713,38 +719,38 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
+        <v>44</v>
+      </c>
+      <c r="D3">
+        <v>44</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="L3">
         <v>46</v>
       </c>
-      <c r="D3">
+      <c r="M3">
         <v>46</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K3">
-        <v>0.8</v>
-      </c>
-      <c r="L3">
-        <v>52</v>
-      </c>
-      <c r="M3">
-        <v>52</v>
-      </c>
       <c r="N3">
         <v>1</v>
       </c>
@@ -755,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -763,13 +769,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -781,19 +787,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K4">
-        <v>0.7857142857142857</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -813,13 +819,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7746478873239436</v>
+        <v>0.78125</v>
       </c>
       <c r="C5">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -831,19 +837,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K5">
-        <v>0.7777777777777778</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -855,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -863,13 +869,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7741935483870968</v>
+        <v>0.7526881720430108</v>
       </c>
       <c r="C6">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D6">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -881,19 +887,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K6">
-        <v>0.6559139784946236</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L6">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M6">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -905,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -913,13 +919,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.765625</v>
+        <v>0.75</v>
       </c>
       <c r="C7">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D7">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -931,19 +937,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K7">
-        <v>0.5094339622641509</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L7">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="M7">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -955,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -963,13 +969,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7378640776699029</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C8">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -981,19 +987,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K8">
-        <v>0.46875</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1005,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1013,13 +1019,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7037037037037037</v>
+        <v>0.7233009708737864</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1031,19 +1037,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K9">
-        <v>0.4202898550724637</v>
+        <v>0.46875</v>
       </c>
       <c r="L9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1055,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1063,13 +1069,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6896551724137931</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1081,19 +1087,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K10">
-        <v>0.3450819672131147</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="L10">
-        <v>421</v>
+        <v>27</v>
       </c>
       <c r="M10">
-        <v>421</v>
+        <v>27</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1105,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>799</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1113,13 +1119,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6418918918918919</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1131,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K11">
-        <v>0.2955523672883787</v>
+        <v>0.339344262295082</v>
       </c>
       <c r="L11">
-        <v>206</v>
+        <v>414</v>
       </c>
       <c r="M11">
-        <v>206</v>
+        <v>414</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1155,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>491</v>
+        <v>806</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1163,13 +1169,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.631578947368421</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1181,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K12">
-        <v>0.2302904564315353</v>
+        <v>0.2955523672883787</v>
       </c>
       <c r="L12">
-        <v>111</v>
+        <v>206</v>
       </c>
       <c r="M12">
-        <v>111</v>
+        <v>206</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1205,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>371</v>
+        <v>491</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1234,16 +1240,16 @@
         <v>19</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K13">
-        <v>0.2083333333333333</v>
+        <v>0.2510373443983402</v>
       </c>
       <c r="L13">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="M13">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1255,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>95</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1263,13 +1269,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5966386554621849</v>
+        <v>0.6</v>
       </c>
       <c r="C14">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1281,19 +1287,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K14">
-        <v>0.1807228915662651</v>
+        <v>0.2018348623853211</v>
       </c>
       <c r="L14">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="M14">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1305,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>136</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1313,13 +1319,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5370370370370371</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C15">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1331,19 +1337,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K15">
-        <v>0.1651376146788991</v>
+        <v>0.2</v>
       </c>
       <c r="L15">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="M15">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1355,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>273</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1363,38 +1369,38 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5272727272727272</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="C16">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>17</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>12</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16">
+        <v>0.1746987951807229</v>
+      </c>
+      <c r="L16">
         <v>29</v>
       </c>
-      <c r="D16">
+      <c r="M16">
         <v>29</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>26</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K16">
-        <v>0.1322751322751323</v>
-      </c>
-      <c r="L16">
-        <v>25</v>
-      </c>
-      <c r="M16">
-        <v>25</v>
-      </c>
       <c r="N16">
         <v>1</v>
       </c>
@@ -1405,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>164</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1413,13 +1419,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5238095238095238</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D17">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1431,19 +1437,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K17">
-        <v>0.08602150537634409</v>
+        <v>0.1322751322751323</v>
       </c>
       <c r="L17">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M17">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1455,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1463,13 +1469,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5</v>
+        <v>0.5798319327731093</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="D18">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1481,19 +1487,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K18">
-        <v>0.08501314636283962</v>
+        <v>0.1044176706827309</v>
       </c>
       <c r="L18">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="M18">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1505,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1044</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1513,13 +1519,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4782608695652174</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="C19">
-        <v>165</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>165</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1531,19 +1537,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>180</v>
+        <v>17</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K19">
-        <v>0.07228915662650602</v>
+        <v>0.07274320771253287</v>
       </c>
       <c r="L19">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="M19">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1555,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>231</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1563,37 +1569,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4571428571428571</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>16</v>
       </c>
-      <c r="D20">
-        <v>16</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>19</v>
-      </c>
       <c r="J20" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K20">
-        <v>0.04735376044568245</v>
+        <v>0.03374432186891629</v>
       </c>
       <c r="L20">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="M20">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1605,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>342</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1613,13 +1619,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4444444444444444</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1631,19 +1637,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K21">
-        <v>0.03374432186891629</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="L21">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="M21">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1655,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1489</v>
+        <v>736</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1663,13 +1669,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4337349397590362</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C22">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D22">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1681,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1689,13 +1695,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4315789473684211</v>
+        <v>0.4526315789473684</v>
       </c>
       <c r="C23">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D23">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1707,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1715,13 +1721,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4285714285714285</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1733,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1741,13 +1747,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4015748031496063</v>
+        <v>0.4405797101449275</v>
       </c>
       <c r="C25">
-        <v>51</v>
+        <v>152</v>
       </c>
       <c r="D25">
-        <v>51</v>
+        <v>152</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1759,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>76</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1767,13 +1773,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3968253968253968</v>
+        <v>0.4251968503937008</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D26">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1785,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>38</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1793,13 +1799,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3707865168539326</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="C27">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D27">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1811,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1819,13 +1825,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3703703703703703</v>
+        <v>0.4</v>
       </c>
       <c r="C28">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D28">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1837,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1845,13 +1851,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3666666666666666</v>
+        <v>0.3734939759036144</v>
       </c>
       <c r="C29">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D29">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1863,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1871,13 +1877,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.328125</v>
+        <v>0.3595505617977528</v>
       </c>
       <c r="C30">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D30">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1889,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1897,13 +1903,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3168316831683168</v>
+        <v>0.359375</v>
       </c>
       <c r="C31">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="D31">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1915,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>138</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1923,13 +1929,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3127962085308057</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="C32">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="D32">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1941,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>145</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1949,13 +1955,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3125</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="C33">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D33">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1967,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>88</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1975,13 +1981,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2962962962962963</v>
+        <v>0.3118811881188119</v>
       </c>
       <c r="C34">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="D34">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1993,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>38</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2001,13 +2007,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2758620689655172</v>
+        <v>0.2985074626865671</v>
       </c>
       <c r="C35">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D35">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2019,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2027,13 +2033,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2474226804123711</v>
+        <v>0.2890625</v>
       </c>
       <c r="C36">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D36">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2045,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>146</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2053,13 +2059,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2459016393442623</v>
+        <v>0.2796208530805687</v>
       </c>
       <c r="C37">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="D37">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2071,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>46</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2079,13 +2085,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2136752136752137</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C38">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D38">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2097,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>92</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2105,13 +2111,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2133333333333333</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="C39">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D39">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2123,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>59</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2131,13 +2137,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2040816326530612</v>
+        <v>0.2244897959183673</v>
       </c>
       <c r="C40">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D40">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2149,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2157,13 +2163,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1899109792284867</v>
+        <v>0.211340206185567</v>
       </c>
       <c r="C41">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="D41">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2175,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>546</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2183,13 +2189,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1702898550724638</v>
+        <v>0.1824925816023739</v>
       </c>
       <c r="C42">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="D42">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2201,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>229</v>
+        <v>551</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2209,13 +2215,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1613924050632911</v>
+        <v>0.1752577319587629</v>
       </c>
       <c r="C43">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D43">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2227,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>265</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2235,13 +2241,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1610169491525424</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="C44">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D44">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2253,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>99</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2261,13 +2267,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1574074074074074</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C45">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D45">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2279,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>91</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2287,13 +2293,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1495327102803738</v>
+        <v>0.1541850220264317</v>
       </c>
       <c r="C46">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="D46">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2305,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>182</v>
+        <v>384</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2313,13 +2319,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1455696202531646</v>
+        <v>0.1528662420382166</v>
       </c>
       <c r="C47">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D47">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2331,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>270</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2339,13 +2345,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.14</v>
+        <v>0.1518987341772152</v>
       </c>
       <c r="C48">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D48">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2357,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>172</v>
+        <v>268</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2365,13 +2371,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1387665198237885</v>
+        <v>0.1424050632911392</v>
       </c>
       <c r="C49">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D49">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2383,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>391</v>
+        <v>271</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2391,25 +2397,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1203007518796992</v>
+        <v>0.1268011527377522</v>
       </c>
       <c r="C50">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D50">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E50">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F50">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>234</v>
+        <v>303</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2417,13 +2423,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1146496815286624</v>
+        <v>0.1257142857142857</v>
       </c>
       <c r="C51">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D51">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2435,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2443,13 +2449,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1142857142857143</v>
+        <v>0.125</v>
       </c>
       <c r="C52">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D52">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2461,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>155</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2469,13 +2475,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1142857142857143</v>
+        <v>0.1214953271028037</v>
       </c>
       <c r="C53">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D53">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2487,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>124</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2495,13 +2501,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1091954022988506</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="C54">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D54">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2513,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>310</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2521,25 +2527,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.0851063829787234</v>
+        <v>0.09424083769633508</v>
       </c>
       <c r="C55">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D55">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E55">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2547,13 +2553,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.08196721311475409</v>
+        <v>0.09274193548387097</v>
       </c>
       <c r="C56">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D56">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2565,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>168</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2573,13 +2579,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.08064516129032258</v>
+        <v>0.08614232209737828</v>
       </c>
       <c r="C57">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D57">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2591,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>228</v>
+        <v>244</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2599,13 +2605,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.075</v>
+        <v>0.07397260273972603</v>
       </c>
       <c r="C58">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D58">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2617,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>259</v>
+        <v>338</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2625,25 +2631,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.07397260273972603</v>
+        <v>0.05803571428571429</v>
       </c>
       <c r="C59">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D59">
         <v>27</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>338</v>
+        <v>422</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2651,25 +2657,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.05930807248764415</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="C60">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D60">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E60">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>571</v>
+        <v>264</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2677,25 +2683,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.05633802816901409</v>
+        <v>0.05601317957166392</v>
       </c>
       <c r="C61">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D61">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>335</v>
+        <v>573</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2703,25 +2709,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.0556792873051225</v>
+        <v>0.04883720930232558</v>
       </c>
       <c r="C62">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D62">
         <v>25</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>424</v>
+        <v>409</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2729,25 +2735,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.04906542056074766</v>
+        <v>0.04746835443037975</v>
       </c>
       <c r="C63">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D63">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E63">
-        <v>0.22</v>
+        <v>0.06</v>
       </c>
       <c r="F63">
-        <v>0.78</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
       </c>
       <c r="H63">
-        <v>407</v>
+        <v>301</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2755,25 +2761,77 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03156565656565657</v>
+        <v>0.04225352112676056</v>
       </c>
       <c r="C64">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D64">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E64">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>767</v>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65">
+        <v>0.03215926493108729</v>
+      </c>
+      <c r="C65">
+        <v>21</v>
+      </c>
+      <c r="D65">
+        <v>23</v>
+      </c>
+      <c r="E65">
+        <v>0.09</v>
+      </c>
+      <c r="F65">
+        <v>0.91</v>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66">
+        <v>0.0290771175726928</v>
+      </c>
+      <c r="C66">
+        <v>23</v>
+      </c>
+      <c r="D66">
+        <v>26</v>
+      </c>
+      <c r="E66">
+        <v>0.12</v>
+      </c>
+      <c r="F66">
+        <v>0.88</v>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>768</v>
       </c>
     </row>
   </sheetData>
